--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-23T14:16:39+00:00</t>
+    <t>2022-09-24T03:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-24T03:19:04+00:00</t>
+    <t>2022-09-24T04:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-24T04:17:32+00:00</t>
+    <t>2022-09-24T04:31:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-24T04:31:09+00:00</t>
+    <t>2022-09-24T08:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-24T08:11:49+00:00</t>
+    <t>2022-09-25T05:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
